--- a/Tests/Validation/Wheat/Lincoln2023.xlsx
+++ b/Tests/Validation/Wheat/Lincoln2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4A3673-414D-4E8B-A9B8-FA91C6AAAFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DEB39D-EE26-4C87-810C-4B9DF8423F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Wheat.Leaf.HaunStage</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGraound.Wt</t>
   </si>
   <si>
     <t>Wheat.Leaf.Live.Wt</t>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Lincoln2023SD18MayCVStockade</t>
+  </si>
+  <si>
+    <t>Wheat.AboveGround.Wt</t>
   </si>
 </sst>
 </file>
@@ -571,10 +571,10 @@
   <dimension ref="A1:S449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -615,31 +615,31 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
@@ -648,21 +648,21 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2117,10 +2117,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -2314,10 +2314,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -2547,10 +2547,10 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -2607,10 +2607,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -2627,10 +2627,10 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -2647,10 +2647,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -2767,10 +2767,10 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -2787,10 +2787,10 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -2987,10 +2987,10 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -3067,10 +3067,10 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -3107,10 +3107,10 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -3207,10 +3207,10 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -3227,10 +3227,10 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
         <v>3</v>
@@ -3267,10 +3267,10 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
@@ -3287,10 +3287,10 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
         <v>3</v>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
         <v>3</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -3347,10 +3347,10 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -3427,10 +3427,10 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -3447,10 +3447,10 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
         <v>3</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
         <v>3</v>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C124" t="s">
         <v>3</v>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
         <v>3</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
@@ -3707,10 +3707,10 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
@@ -3747,10 +3747,10 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C132" t="s">
         <v>3</v>
@@ -3787,10 +3787,10 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
         <v>3</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C135" t="s">
         <v>3</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136" t="s">
         <v>3</v>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
@@ -3887,10 +3887,10 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C138" t="s">
         <v>3</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C140" t="s">
         <v>3</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
@@ -3967,10 +3967,10 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C142" t="s">
         <v>3</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C143" t="s">
         <v>3</v>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -4047,10 +4047,10 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -4107,10 +4107,10 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -4127,10 +4127,10 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -4147,10 +4147,10 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -4167,10 +4167,10 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
@@ -4187,10 +4187,10 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C153" t="s">
         <v>4</v>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -4227,10 +4227,10 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C155" t="s">
         <v>4</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C157" t="s">
         <v>4</v>
@@ -4287,10 +4287,10 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
@@ -4367,10 +4367,10 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C162" t="s">
         <v>4</v>
@@ -4387,10 +4387,10 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C163" t="s">
         <v>4</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C165" t="s">
         <v>4</v>
@@ -4447,10 +4447,10 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -4487,10 +4487,10 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -4507,10 +4507,10 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -4547,10 +4547,10 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -4587,10 +4587,10 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C175" t="s">
         <v>4</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C176" t="s">
         <v>4</v>
@@ -4667,10 +4667,10 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C177" t="s">
         <v>4</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C178" t="s">
         <v>4</v>
@@ -4707,10 +4707,10 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -4727,10 +4727,10 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
@@ -4767,10 +4767,10 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -4827,10 +4827,10 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
@@ -4847,10 +4847,10 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
@@ -4887,10 +4887,10 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
         <v>4</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
@@ -4967,10 +4967,10 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C192" t="s">
         <v>4</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C193" t="s">
         <v>4</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C194" t="s">
         <v>4</v>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C195" t="s">
         <v>4</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C196" t="s">
         <v>4</v>
@@ -5067,10 +5067,10 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C197" t="s">
         <v>4</v>
@@ -5087,10 +5087,10 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C198" t="s">
         <v>4</v>
@@ -5107,10 +5107,10 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C200" t="s">
         <v>4</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C201" t="s">
         <v>4</v>
@@ -5167,10 +5167,10 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C202" t="s">
         <v>4</v>
@@ -5187,10 +5187,10 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C203" t="s">
         <v>4</v>
@@ -5207,10 +5207,10 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C204" t="s">
         <v>4</v>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C205" t="s">
         <v>4</v>
@@ -5247,10 +5247,10 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C206" t="s">
         <v>4</v>
@@ -5267,10 +5267,10 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C207" t="s">
         <v>4</v>
@@ -5287,10 +5287,10 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C208" t="s">
         <v>4</v>
@@ -5307,10 +5307,10 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B209" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
@@ -5327,10 +5327,10 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C210" t="s">
         <v>4</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C211" t="s">
         <v>4</v>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C212" t="s">
         <v>4</v>
@@ -5387,10 +5387,10 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C213" t="s">
         <v>4</v>
@@ -5407,10 +5407,10 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C214" t="s">
         <v>4</v>
@@ -5427,10 +5427,10 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C215" t="s">
         <v>4</v>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C216" t="s">
         <v>4</v>
@@ -5467,10 +5467,10 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C217" t="s">
         <v>4</v>
@@ -5487,10 +5487,10 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C218" t="s">
         <v>4</v>
@@ -5507,10 +5507,10 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C219" t="s">
         <v>4</v>
@@ -5527,10 +5527,10 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C220" t="s">
         <v>4</v>
@@ -5547,10 +5547,10 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C221" t="s">
         <v>4</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C222" t="s">
         <v>4</v>
@@ -5587,10 +5587,10 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5627,10 +5627,10 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5647,10 +5647,10 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B226" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5667,10 +5667,10 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5687,10 +5687,10 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5727,10 +5727,10 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5747,10 +5747,10 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B231" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5807,10 +5807,10 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5827,10 +5827,10 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5847,10 +5847,10 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5867,10 +5867,10 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5887,10 +5887,10 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5927,10 +5927,10 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5947,10 +5947,10 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5987,10 +5987,10 @@
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -6007,10 +6007,10 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B244" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -6047,10 +6047,10 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B246" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -6067,10 +6067,10 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -6087,10 +6087,10 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -6147,10 +6147,10 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B251" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B252" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -6187,10 +6187,10 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -6207,10 +6207,10 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -6227,10 +6227,10 @@
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B255" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -6247,10 +6247,10 @@
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B256" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -6267,10 +6267,10 @@
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -6287,10 +6287,10 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -6307,10 +6307,10 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -6327,10 +6327,10 @@
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B260" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -6347,10 +6347,10 @@
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6367,10 +6367,10 @@
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B263" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6407,10 +6407,10 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B265" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6447,10 +6447,10 @@
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B266" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6487,10 +6487,10 @@
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B268" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6507,10 +6507,10 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6527,10 +6527,10 @@
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6547,10 +6547,10 @@
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B271" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6607,10 +6607,10 @@
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B276" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6667,10 +6667,10 @@
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6687,10 +6687,10 @@
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6707,10 +6707,10 @@
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6727,10 +6727,10 @@
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B280" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6747,10 +6747,10 @@
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B281" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6767,10 +6767,10 @@
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B282" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6787,10 +6787,10 @@
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B283" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6827,10 +6827,10 @@
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B285" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6847,10 +6847,10 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B286" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6867,10 +6867,10 @@
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B287" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6887,10 +6887,10 @@
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B288" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6907,10 +6907,10 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B289" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6927,10 +6927,10 @@
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6947,10 +6947,10 @@
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B291" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6967,10 +6967,10 @@
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B292" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6987,10 +6987,10 @@
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B293" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -7007,10 +7007,10 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B294" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -7027,10 +7027,10 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B295" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -7047,10 +7047,10 @@
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B296" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -7067,10 +7067,10 @@
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B297" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B298" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -7107,10 +7107,10 @@
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -7127,10 +7127,10 @@
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -7147,10 +7147,10 @@
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B301" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -7167,10 +7167,10 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B302" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C302" t="s">
         <v>6</v>
@@ -7187,10 +7187,10 @@
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B303" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
@@ -7207,10 +7207,10 @@
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B304" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C304" t="s">
         <v>6</v>
@@ -7227,10 +7227,10 @@
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B305" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C305" t="s">
         <v>6</v>
@@ -7247,10 +7247,10 @@
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B306" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C306" t="s">
         <v>6</v>
@@ -7267,10 +7267,10 @@
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B307" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C307" t="s">
         <v>6</v>
@@ -7287,10 +7287,10 @@
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B308" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C308" t="s">
         <v>6</v>
@@ -7307,10 +7307,10 @@
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B309" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C309" t="s">
         <v>6</v>
@@ -7327,10 +7327,10 @@
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B310" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C310" t="s">
         <v>6</v>
@@ -7347,10 +7347,10 @@
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B311" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
@@ -7367,10 +7367,10 @@
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B312" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
@@ -7387,10 +7387,10 @@
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B313" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
@@ -7407,10 +7407,10 @@
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B314" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C314" t="s">
         <v>6</v>
@@ -7427,10 +7427,10 @@
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B315" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C315" t="s">
         <v>6</v>
@@ -7447,10 +7447,10 @@
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B316" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C316" t="s">
         <v>6</v>
@@ -7467,10 +7467,10 @@
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B317" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
@@ -7487,10 +7487,10 @@
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B318" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
@@ -7507,10 +7507,10 @@
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B319" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C319" t="s">
         <v>6</v>
@@ -7527,10 +7527,10 @@
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B320" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
@@ -7547,10 +7547,10 @@
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B321" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
@@ -7567,10 +7567,10 @@
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C322" t="s">
         <v>6</v>
@@ -7587,10 +7587,10 @@
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B323" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C323" t="s">
         <v>6</v>
@@ -7607,10 +7607,10 @@
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B324" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C324" t="s">
         <v>6</v>
@@ -7627,10 +7627,10 @@
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B325" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C325" t="s">
         <v>6</v>
@@ -7647,10 +7647,10 @@
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B326" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C326" t="s">
         <v>6</v>
@@ -7667,10 +7667,10 @@
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B327" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C327" t="s">
         <v>6</v>
@@ -7687,10 +7687,10 @@
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B328" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
@@ -7707,10 +7707,10 @@
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B329" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C329" t="s">
         <v>6</v>
@@ -7727,10 +7727,10 @@
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B330" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C330" t="s">
         <v>6</v>
@@ -7747,10 +7747,10 @@
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B331" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C331" t="s">
         <v>6</v>
@@ -7767,10 +7767,10 @@
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B332" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C332" t="s">
         <v>6</v>
@@ -7787,10 +7787,10 @@
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C333" t="s">
         <v>6</v>
@@ -7807,10 +7807,10 @@
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B334" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C334" t="s">
         <v>6</v>
@@ -7827,10 +7827,10 @@
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B335" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C335" t="s">
         <v>6</v>
@@ -7847,10 +7847,10 @@
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B336" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
@@ -7867,10 +7867,10 @@
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B337" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C337" t="s">
         <v>6</v>
@@ -7887,10 +7887,10 @@
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B338" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C338" t="s">
         <v>6</v>
@@ -7907,10 +7907,10 @@
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B339" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C339" t="s">
         <v>6</v>
@@ -7927,10 +7927,10 @@
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B340" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C340" t="s">
         <v>6</v>
@@ -7947,10 +7947,10 @@
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B341" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C341" t="s">
         <v>6</v>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B342" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C342" t="s">
         <v>6</v>
@@ -7987,10 +7987,10 @@
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B343" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C343" t="s">
         <v>6</v>
@@ -8007,10 +8007,10 @@
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B344" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C344" t="s">
         <v>6</v>
@@ -8027,10 +8027,10 @@
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B345" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C345" t="s">
         <v>6</v>
@@ -8047,10 +8047,10 @@
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B346" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C346" t="s">
         <v>6</v>
@@ -8067,10 +8067,10 @@
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B347" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C347" t="s">
         <v>6</v>
@@ -8087,10 +8087,10 @@
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B348" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C348" t="s">
         <v>6</v>
@@ -8107,10 +8107,10 @@
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B349" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
@@ -8127,10 +8127,10 @@
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B350" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C350" t="s">
         <v>6</v>
@@ -8147,10 +8147,10 @@
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B351" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C351" t="s">
         <v>6</v>
@@ -8167,10 +8167,10 @@
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B352" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C352" t="s">
         <v>6</v>
@@ -8187,10 +8187,10 @@
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B353" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C353" t="s">
         <v>6</v>
@@ -8207,10 +8207,10 @@
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B354" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C354" t="s">
         <v>6</v>
@@ -8227,10 +8227,10 @@
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B355" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C355" t="s">
         <v>6</v>
@@ -8247,10 +8247,10 @@
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B356" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C356" t="s">
         <v>6</v>
@@ -8267,10 +8267,10 @@
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B357" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C357" t="s">
         <v>6</v>
@@ -8287,10 +8287,10 @@
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B358" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C358" t="s">
         <v>6</v>
@@ -8307,10 +8307,10 @@
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B359" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C359" t="s">
         <v>6</v>
@@ -8327,10 +8327,10 @@
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B360" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C360" t="s">
         <v>6</v>
@@ -8347,10 +8347,10 @@
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B361" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C361" t="s">
         <v>6</v>
@@ -8367,10 +8367,10 @@
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B362" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C362" t="s">
         <v>6</v>
@@ -8387,10 +8387,10 @@
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B363" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C363" t="s">
         <v>6</v>
@@ -8407,10 +8407,10 @@
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B364" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C364" t="s">
         <v>6</v>
@@ -8427,10 +8427,10 @@
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B365" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C365" t="s">
         <v>6</v>
@@ -8447,10 +8447,10 @@
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B366" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C366" t="s">
         <v>6</v>
@@ -8467,10 +8467,10 @@
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B367" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C367" t="s">
         <v>6</v>
@@ -8487,10 +8487,10 @@
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B368" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C368" t="s">
         <v>6</v>
@@ -8507,10 +8507,10 @@
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B369" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
@@ -8527,10 +8527,10 @@
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B370" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
@@ -8547,10 +8547,10 @@
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B371" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
@@ -8567,10 +8567,10 @@
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B372" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C372" t="s">
         <v>6</v>
@@ -8587,10 +8587,10 @@
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B373" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C373" t="s">
         <v>6</v>
@@ -8607,10 +8607,10 @@
     </row>
     <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B374" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
@@ -8627,10 +8627,10 @@
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B375" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C375" t="s">
         <v>6</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B376" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C376" t="s">
         <v>6</v>
@@ -8667,10 +8667,10 @@
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B377" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C377" t="s">
         <v>6</v>
@@ -8687,10 +8687,10 @@
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B378" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C378" t="s">
         <v>6</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B379" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C379" t="s">
         <v>6</v>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B380" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C380" t="s">
         <v>7</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B381" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C381" t="s">
         <v>7</v>
@@ -8767,10 +8767,10 @@
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B382" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C382" t="s">
         <v>7</v>
@@ -8787,10 +8787,10 @@
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B383" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C383" t="s">
         <v>7</v>
@@ -8807,10 +8807,10 @@
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B384" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C384" t="s">
         <v>7</v>
@@ -8827,10 +8827,10 @@
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B385" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C385" t="s">
         <v>7</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B386" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C386" t="s">
         <v>7</v>
@@ -8867,10 +8867,10 @@
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B387" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C387" t="s">
         <v>7</v>
@@ -8887,10 +8887,10 @@
     </row>
     <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B388" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C388" t="s">
         <v>7</v>
@@ -8907,10 +8907,10 @@
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B389" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C389" t="s">
         <v>7</v>
@@ -8927,10 +8927,10 @@
     </row>
     <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B390" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C390" t="s">
         <v>7</v>
@@ -8947,10 +8947,10 @@
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B391" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C391" t="s">
         <v>7</v>
@@ -8967,10 +8967,10 @@
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B392" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C392" t="s">
         <v>7</v>
@@ -8987,10 +8987,10 @@
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B393" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C393" t="s">
         <v>7</v>
@@ -9007,10 +9007,10 @@
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B394" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C394" t="s">
         <v>7</v>
@@ -9027,10 +9027,10 @@
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B395" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C395" t="s">
         <v>7</v>
@@ -9047,10 +9047,10 @@
     </row>
     <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B396" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C396" t="s">
         <v>7</v>
@@ -9067,10 +9067,10 @@
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B397" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
@@ -9087,10 +9087,10 @@
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B398" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C398" t="s">
         <v>7</v>
@@ -9107,10 +9107,10 @@
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B399" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C399" t="s">
         <v>7</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B400" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
@@ -9147,10 +9147,10 @@
     </row>
     <row r="401" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B401" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C401" t="s">
         <v>8</v>
@@ -9167,10 +9167,10 @@
     </row>
     <row r="402" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B402" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
@@ -9187,10 +9187,10 @@
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B403" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
@@ -9207,10 +9207,10 @@
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B404" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
@@ -9227,10 +9227,10 @@
     </row>
     <row r="405" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B405" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
@@ -9247,10 +9247,10 @@
     </row>
     <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B406" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
@@ -9267,10 +9267,10 @@
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B407" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C407" t="s">
         <v>8</v>
@@ -9287,10 +9287,10 @@
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B408" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
@@ -9307,10 +9307,10 @@
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B409" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
@@ -9327,10 +9327,10 @@
     </row>
     <row r="410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B410" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
@@ -9347,10 +9347,10 @@
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B411" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
@@ -9367,10 +9367,10 @@
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B412" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
@@ -9387,10 +9387,10 @@
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B413" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
@@ -9407,10 +9407,10 @@
     </row>
     <row r="414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B414" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
@@ -9427,10 +9427,10 @@
     </row>
     <row r="415" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B415" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
@@ -9447,10 +9447,10 @@
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B416" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C416" t="s">
         <v>8</v>
@@ -9467,10 +9467,10 @@
     </row>
     <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B417" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
@@ -9487,10 +9487,10 @@
     </row>
     <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B418" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
@@ -9507,10 +9507,10 @@
     </row>
     <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B419" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
@@ -9527,10 +9527,10 @@
     </row>
     <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B420" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C420" t="s">
         <v>7</v>
@@ -9547,10 +9547,10 @@
     </row>
     <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B421" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C421" t="s">
         <v>6</v>
@@ -9567,10 +9567,10 @@
     </row>
     <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B422" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C422" t="s">
         <v>4</v>
@@ -9587,10 +9587,10 @@
     </row>
     <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B423" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -9607,10 +9607,10 @@
     </row>
     <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B424" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C424" t="s">
         <v>3</v>
@@ -9627,10 +9627,10 @@
     </row>
     <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B425" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C425" t="s">
         <v>8</v>
@@ -9644,10 +9644,10 @@
     </row>
     <row r="426" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B426" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C426" t="s">
         <v>7</v>
@@ -9664,10 +9664,10 @@
     </row>
     <row r="427" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B427" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C427" t="s">
         <v>3</v>
@@ -9684,10 +9684,10 @@
     </row>
     <row r="428" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B428" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C428" t="s">
         <v>4</v>
@@ -9704,10 +9704,10 @@
     </row>
     <row r="429" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B429" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C429" t="s">
         <v>6</v>
@@ -9724,10 +9724,10 @@
     </row>
     <row r="430" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B430" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
@@ -9741,10 +9741,10 @@
     </row>
     <row r="431" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B431" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -9761,10 +9761,10 @@
     </row>
     <row r="432" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B432" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C432" t="s">
         <v>3</v>
@@ -9781,10 +9781,10 @@
     </row>
     <row r="433" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B433" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C433" t="s">
         <v>6</v>
@@ -9801,10 +9801,10 @@
     </row>
     <row r="434" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B434" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -9821,10 +9821,10 @@
     </row>
     <row r="435" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B435" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C435" t="s">
         <v>4</v>
@@ -9841,10 +9841,10 @@
     </row>
     <row r="436" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B436" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -9861,10 +9861,10 @@
     </row>
     <row r="437" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B437" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C437" t="s">
         <v>6</v>
@@ -9881,10 +9881,10 @@
     </row>
     <row r="438" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B438" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C438" t="s">
         <v>3</v>
@@ -9901,10 +9901,10 @@
     </row>
     <row r="439" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B439" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C439" t="s">
         <v>6</v>
@@ -9921,10 +9921,10 @@
     </row>
     <row r="440" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B440" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -9941,10 +9941,10 @@
     </row>
     <row r="441" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B441" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C441" t="s">
         <v>4</v>
@@ -9961,10 +9961,10 @@
     </row>
     <row r="442" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B442" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
@@ -9981,10 +9981,10 @@
     </row>
     <row r="443" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B443" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -10001,10 +10001,10 @@
     </row>
     <row r="444" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B444" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C444" t="s">
         <v>4</v>
@@ -10021,10 +10021,10 @@
     </row>
     <row r="445" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B445" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C445" t="s">
         <v>3</v>
@@ -10041,10 +10041,10 @@
     </row>
     <row r="446" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B446" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C446" t="s">
         <v>6</v>
@@ -10061,10 +10061,10 @@
     </row>
     <row r="447" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B447" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -10081,10 +10081,10 @@
     </row>
     <row r="448" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B448" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C448" t="s">
         <v>4</v>
@@ -10101,10 +10101,10 @@
     </row>
     <row r="449" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B449" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C449" t="s">
         <v>3</v>
@@ -10198,14 +10198,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002CA9C2C83C87A7408E0099D61CB2C224" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="194fe36659a94a0e620b84cf570cc429">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="322cff4d-e128-4275-8c17-01ea60ce9850" xmlns:ns4="7391035e-a561-4b14-b643-167d3e77bc43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d90e7092061b06a04f0000cdc385d8c9" ns3:_="" ns4:_="">
     <xsd:import namespace="322cff4d-e128-4275-8c17-01ea60ce9850"/>
@@ -10446,6 +10438,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF2685A2-EDC1-4253-9F49-4B9843B5C24F}">
   <ds:schemaRefs>
@@ -10455,23 +10455,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2F809D2-A28D-4CB9-B119-4956D3989E1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="322cff4d-e128-4275-8c17-01ea60ce9850"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7391035e-a561-4b14-b643-167d3e77bc43"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C11DFD3-3B47-426F-96BD-9971C8F62AD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10488,4 +10471,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2F809D2-A28D-4CB9-B119-4956D3989E1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="322cff4d-e128-4275-8c17-01ea60ce9850"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7391035e-a561-4b14-b643-167d3e77bc43"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tests/Validation/Wheat/Lincoln2023.xlsx
+++ b/Tests/Validation/Wheat/Lincoln2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095D8386-1C43-4256-AA62-3C950D7E795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384DE3FA-C88A-4138-9E0F-A2737450C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$L$1:$L$1758</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$Q$1:$R$1758</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -150,13 +150,7 @@
     <t>Wheat.GroundCover</t>
   </si>
   <si>
-    <t>StartOfGrainFilling</t>
-  </si>
-  <si>
     <t>EndOfGrainFilling</t>
-  </si>
-  <si>
-    <t>PhysiologicalMaturity</t>
   </si>
   <si>
     <t>Wheat.Ear.Number</t>
@@ -178,9 +172,6 @@
   </si>
   <si>
     <t>GrainFilling</t>
-  </si>
-  <si>
-    <t>StartOfElongation</t>
   </si>
   <si>
     <t>2ndNodeOnMainStem</t>
@@ -238,6 +229,15 @@
   </si>
   <si>
     <t>Wheat.Grain.Size</t>
+  </si>
+  <si>
+    <t>HarvestRipe</t>
+  </si>
+  <si>
+    <t>StartGrainFill</t>
+  </si>
+  <si>
+    <t>EndGrainFill</t>
   </si>
 </sst>
 </file>
@@ -686,10 +686,10 @@
   <dimension ref="A1:V1758"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="U198" sqref="U198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,13 +738,13 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
         <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -753,16 +753,16 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s">
         <v>12</v>
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s">
-        <v>61</v>
-      </c>
       <c r="V1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -960,7 +960,7 @@
         <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
         <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1081,7 +1081,7 @@
         <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
         <v>39</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -1360,7 +1360,7 @@
         <v>79</v>
       </c>
       <c r="R19" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>90</v>
       </c>
       <c r="R20" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>30</v>
       </c>
       <c r="R23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -1539,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -1574,7 +1574,7 @@
         <v>39</v>
       </c>
       <c r="R25" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -1644,7 +1644,7 @@
         <v>79</v>
       </c>
       <c r="R27" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -1695,7 +1695,7 @@
         <v>90</v>
       </c>
       <c r="R28" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
@@ -1875,7 +1875,7 @@
         <v>39</v>
       </c>
       <c r="R34" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
@@ -1945,7 +1945,7 @@
         <v>79</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -1996,7 +1996,7 @@
         <v>90</v>
       </c>
       <c r="R37" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -2147,7 +2147,7 @@
         <v>32</v>
       </c>
       <c r="R42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -2211,7 +2211,7 @@
         <v>39</v>
       </c>
       <c r="R44" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -2281,7 +2281,7 @@
         <v>79</v>
       </c>
       <c r="R46" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -2332,7 +2332,7 @@
         <v>90</v>
       </c>
       <c r="R47" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="R50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
@@ -2460,7 +2460,7 @@
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -2495,7 +2495,7 @@
         <v>39</v>
       </c>
       <c r="R52" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -2565,7 +2565,7 @@
         <v>79</v>
       </c>
       <c r="R54" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -2616,7 +2616,7 @@
         <v>90</v>
       </c>
       <c r="R55" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
@@ -2825,7 +2825,7 @@
         <v>39</v>
       </c>
       <c r="R62" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
@@ -2895,7 +2895,7 @@
         <v>79</v>
       </c>
       <c r="R64" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -2946,7 +2946,7 @@
         <v>90</v>
       </c>
       <c r="R65" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -3097,7 +3097,7 @@
         <v>32</v>
       </c>
       <c r="R70" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
@@ -3132,7 +3132,7 @@
         <v>39</v>
       </c>
       <c r="R71" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
@@ -3202,7 +3202,7 @@
         <v>79</v>
       </c>
       <c r="R73" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -3253,7 +3253,7 @@
         <v>90</v>
       </c>
       <c r="R74" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
@@ -3346,7 +3346,7 @@
         <v>30</v>
       </c>
       <c r="R77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
@@ -3381,7 +3381,7 @@
         <v>32</v>
       </c>
       <c r="R78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
@@ -3416,7 +3416,7 @@
         <v>39</v>
       </c>
       <c r="R79" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
@@ -3486,7 +3486,7 @@
         <v>79</v>
       </c>
       <c r="R81" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
@@ -3537,7 +3537,7 @@
         <v>90</v>
       </c>
       <c r="R82" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
@@ -3746,7 +3746,7 @@
         <v>39</v>
       </c>
       <c r="R89" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
@@ -3816,7 +3816,7 @@
         <v>79</v>
       </c>
       <c r="R91" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
@@ -3867,7 +3867,7 @@
         <v>90</v>
       </c>
       <c r="R92" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
@@ -4076,7 +4076,7 @@
         <v>39</v>
       </c>
       <c r="R99" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
@@ -4146,7 +4146,7 @@
         <v>79</v>
       </c>
       <c r="R101" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
@@ -4197,7 +4197,7 @@
         <v>90</v>
       </c>
       <c r="R102" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -4290,7 +4290,7 @@
         <v>30</v>
       </c>
       <c r="R105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
@@ -4325,7 +4325,7 @@
         <v>32</v>
       </c>
       <c r="R106" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
@@ -4360,7 +4360,7 @@
         <v>39</v>
       </c>
       <c r="R107" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
@@ -4430,7 +4430,7 @@
         <v>79</v>
       </c>
       <c r="R109" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
@@ -4481,7 +4481,7 @@
         <v>90</v>
       </c>
       <c r="R110" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
@@ -4574,7 +4574,7 @@
         <v>30</v>
       </c>
       <c r="R113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
@@ -4609,7 +4609,7 @@
         <v>32</v>
       </c>
       <c r="R114" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
@@ -4644,7 +4644,7 @@
         <v>39</v>
       </c>
       <c r="R115" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
@@ -4714,7 +4714,7 @@
         <v>79</v>
       </c>
       <c r="R117" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.3">
@@ -4763,7 +4763,7 @@
         <v>90</v>
       </c>
       <c r="R118" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.3">
@@ -4856,7 +4856,7 @@
         <v>30</v>
       </c>
       <c r="R121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.3">
@@ -4891,7 +4891,7 @@
         <v>32</v>
       </c>
       <c r="R122" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="R123" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
@@ -4996,7 +4996,7 @@
         <v>79</v>
       </c>
       <c r="R125" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
@@ -5043,7 +5043,7 @@
         <v>90</v>
       </c>
       <c r="R126" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.3">
@@ -5068,7 +5068,7 @@
         <v>10</v>
       </c>
       <c r="R127" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.3">
@@ -5093,7 +5093,7 @@
         <v>10</v>
       </c>
       <c r="R128" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.3">
@@ -5118,7 +5118,7 @@
         <v>10</v>
       </c>
       <c r="R129" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.3">
@@ -5143,7 +5143,7 @@
         <v>10</v>
       </c>
       <c r="R130" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.3">
@@ -5167,7 +5167,7 @@
         <v>10</v>
       </c>
       <c r="R131" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.3">
@@ -5191,7 +5191,7 @@
         <v>10</v>
       </c>
       <c r="R132" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.3">
@@ -5215,7 +5215,7 @@
         <v>10</v>
       </c>
       <c r="R133" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.3">
@@ -5239,7 +5239,7 @@
         <v>10</v>
       </c>
       <c r="R134" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.3">
@@ -5263,7 +5263,7 @@
         <v>10</v>
       </c>
       <c r="R135" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.3">
@@ -5287,7 +5287,7 @@
         <v>10</v>
       </c>
       <c r="R136" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.3">
@@ -5311,7 +5311,7 @@
         <v>10</v>
       </c>
       <c r="R137" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.3">
@@ -5335,7 +5335,7 @@
         <v>10</v>
       </c>
       <c r="R138" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.3">
@@ -5359,7 +5359,7 @@
         <v>10</v>
       </c>
       <c r="R139" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.3">
@@ -5383,7 +5383,7 @@
         <v>10</v>
       </c>
       <c r="R140" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.3">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="M141" s="1"/>
       <c r="R141" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.3">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="M142" s="1"/>
       <c r="R142" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.3">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="M143" s="1"/>
       <c r="R143" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.3">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="M144" s="1"/>
       <c r="R144" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="M145" s="1"/>
       <c r="R145" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="M146" s="1"/>
       <c r="R146" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.3">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="M147" s="1"/>
       <c r="R147" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.3">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="M148" s="1"/>
       <c r="R148" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.3">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="M149" s="1"/>
       <c r="R149" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.3">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="M150" s="1"/>
       <c r="R150" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.3">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="M151" s="1"/>
       <c r="R151" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.3">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="M152" s="1"/>
       <c r="R152" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.3">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="M153" s="1"/>
       <c r="R153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.3">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="M154" s="1"/>
       <c r="R154" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
@@ -5566,7 +5566,7 @@
         <v>39</v>
       </c>
       <c r="R155" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.3">
@@ -5581,7 +5581,7 @@
         <v>39</v>
       </c>
       <c r="R156" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.3">
@@ -5603,7 +5603,7 @@
         <v>39</v>
       </c>
       <c r="R157" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
@@ -5625,7 +5625,7 @@
         <v>39</v>
       </c>
       <c r="R158" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -5647,7 +5647,7 @@
         <v>39</v>
       </c>
       <c r="R159" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.3">
@@ -5669,7 +5669,7 @@
         <v>39</v>
       </c>
       <c r="R160" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.3">
@@ -5691,7 +5691,7 @@
         <v>39</v>
       </c>
       <c r="R161" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.3">
@@ -5713,7 +5713,7 @@
         <v>39</v>
       </c>
       <c r="R162" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.3">
@@ -5735,7 +5735,7 @@
         <v>39</v>
       </c>
       <c r="R163" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.3">
@@ -5757,7 +5757,7 @@
         <v>39</v>
       </c>
       <c r="R164" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.3">
@@ -5779,7 +5779,7 @@
         <v>39</v>
       </c>
       <c r="R165" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.3">
@@ -5801,7 +5801,7 @@
         <v>39</v>
       </c>
       <c r="R166" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.3">
@@ -5823,7 +5823,7 @@
         <v>39</v>
       </c>
       <c r="R167" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.3">
@@ -5838,7 +5838,7 @@
         <v>39</v>
       </c>
       <c r="R168" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.3">
@@ -6083,7 +6083,7 @@
         <v>70</v>
       </c>
       <c r="R183" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.3">
@@ -6097,7 +6097,7 @@
         <v>70</v>
       </c>
       <c r="R184" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.3">
@@ -6111,7 +6111,7 @@
         <v>70</v>
       </c>
       <c r="R185" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.3">
@@ -6125,7 +6125,7 @@
         <v>70</v>
       </c>
       <c r="R186" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.3">
@@ -6139,7 +6139,7 @@
         <v>70</v>
       </c>
       <c r="R187" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.3">
@@ -6153,7 +6153,7 @@
         <v>70</v>
       </c>
       <c r="R188" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.3">
@@ -6167,7 +6167,7 @@
         <v>70</v>
       </c>
       <c r="R189" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.3">
@@ -6181,7 +6181,7 @@
         <v>70</v>
       </c>
       <c r="R190" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.3">
@@ -6195,7 +6195,7 @@
         <v>70</v>
       </c>
       <c r="R191" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.3">
@@ -6209,7 +6209,7 @@
         <v>70</v>
       </c>
       <c r="R192" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.3">
@@ -6223,7 +6223,7 @@
         <v>70</v>
       </c>
       <c r="R193" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.3">
@@ -6237,7 +6237,7 @@
         <v>70</v>
       </c>
       <c r="R194" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.3">
@@ -6251,7 +6251,7 @@
         <v>70</v>
       </c>
       <c r="R195" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.3">
@@ -6265,7 +6265,7 @@
         <v>70</v>
       </c>
       <c r="R196" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.3">
@@ -6279,7 +6279,7 @@
         <v>70</v>
       </c>
       <c r="R197" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.3">
@@ -6293,7 +6293,7 @@
         <v>89</v>
       </c>
       <c r="R198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.3">
@@ -6307,7 +6307,7 @@
         <v>89</v>
       </c>
       <c r="R199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.3">
@@ -6321,7 +6321,7 @@
         <v>89</v>
       </c>
       <c r="R200" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.3">
@@ -6335,7 +6335,7 @@
         <v>89</v>
       </c>
       <c r="R201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.3">
@@ -6349,7 +6349,7 @@
         <v>89</v>
       </c>
       <c r="R202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.3">
@@ -6363,7 +6363,7 @@
         <v>89</v>
       </c>
       <c r="R203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.3">
@@ -6377,7 +6377,7 @@
         <v>89</v>
       </c>
       <c r="R204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.3">
@@ -6391,7 +6391,7 @@
         <v>89</v>
       </c>
       <c r="R205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.3">
@@ -6405,7 +6405,7 @@
         <v>89</v>
       </c>
       <c r="R206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.3">
@@ -6419,7 +6419,7 @@
         <v>89</v>
       </c>
       <c r="R207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.3">
@@ -6433,7 +6433,7 @@
         <v>89</v>
       </c>
       <c r="R208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
@@ -6447,7 +6447,7 @@
         <v>89</v>
       </c>
       <c r="R209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
@@ -6461,7 +6461,7 @@
         <v>89</v>
       </c>
       <c r="R210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
@@ -23568,7 +23568,7 @@
         <v>45035</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23586,7 +23586,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -23610,15 +23610,15 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -23626,15 +23626,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -23642,7 +23642,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -23651,12 +23651,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23901,17 +23900,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF2685A2-EDC1-4253-9F49-4B9843B5C24F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2F809D2-A28D-4CB9-B119-4956D3989E1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="322cff4d-e128-4275-8c17-01ea60ce9850"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7391035e-a561-4b14-b643-167d3e77bc43"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23936,18 +23945,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2F809D2-A28D-4CB9-B119-4956D3989E1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF2685A2-EDC1-4253-9F49-4B9843B5C24F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="322cff4d-e128-4275-8c17-01ea60ce9850"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7391035e-a561-4b14-b643-167d3e77bc43"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tests/Validation/Wheat/Lincoln2023.xlsx
+++ b/Tests/Validation/Wheat/Lincoln2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\Validation\Wheat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D603DFF9-76F8-40AC-8971-A30EE93B422F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF828F6-A302-46F8-836F-11A9FAB3807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3242,7 +3242,7 @@
         <v>14076.00341297205</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O117" si="1">N67/1000000</f>
+        <f t="shared" ref="O67:O125" si="1">N67/1000000</f>
         <v>1.4076003412972049E-2</v>
       </c>
       <c r="P67">
@@ -5226,6 +5226,10 @@
       <c r="N119">
         <v>14653.03418520406</v>
       </c>
+      <c r="O119">
+        <f t="shared" si="1"/>
+        <v>1.4653034185204061E-2</v>
+      </c>
       <c r="P119">
         <v>0.10105093476804709</v>
       </c>
@@ -5255,6 +5259,10 @@
       <c r="N120">
         <v>21552.37019774687</v>
       </c>
+      <c r="O120">
+        <f t="shared" si="1"/>
+        <v>2.1552370197746869E-2</v>
+      </c>
       <c r="P120">
         <v>1.0781399703943471</v>
       </c>
@@ -5284,6 +5292,10 @@
       <c r="N121">
         <v>24175.89231706029</v>
       </c>
+      <c r="O121">
+        <f t="shared" si="1"/>
+        <v>2.4175892317060289E-2</v>
+      </c>
       <c r="P121">
         <v>2.5988027768952051</v>
       </c>
@@ -5319,6 +5331,10 @@
       <c r="N122">
         <v>24825.133808260081</v>
       </c>
+      <c r="O122">
+        <f t="shared" si="1"/>
+        <v>2.4825133808260083E-2</v>
+      </c>
       <c r="P122">
         <v>4.0273256338007712</v>
       </c>
@@ -5354,6 +5370,10 @@
       <c r="N123">
         <v>23258.158970633762</v>
       </c>
+      <c r="O123">
+        <f t="shared" si="1"/>
+        <v>2.3258158970633762E-2</v>
+      </c>
       <c r="P123">
         <v>7.0854080958625074</v>
       </c>
@@ -5389,6 +5409,10 @@
       <c r="N124">
         <v>21052.1108653179</v>
       </c>
+      <c r="O124">
+        <f t="shared" si="1"/>
+        <v>2.10521108653179E-2</v>
+      </c>
       <c r="P124">
         <v>5.9431640487927346</v>
       </c>
@@ -5423,6 +5447,10 @@
       </c>
       <c r="N125">
         <v>17649.933018694359</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="1"/>
+        <v>1.7649933018694358E-2</v>
       </c>
       <c r="P125">
         <v>3.9110316660716942</v>
